--- a/logic.xlsx
+++ b/logic.xlsx
@@ -1,47 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osalikhov/Desktop/works_gss/Indication_SSJnew/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5D8B3-3798-4941-81F7-25756FC0E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="80" yWindow="500" windowWidth="27140" windowHeight="13300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="27140" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6_3_8" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="6_3_8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Текущее положение предкрылков (квор) 1 п/к</t>
+  </si>
+  <si>
+    <t>DPK1</t>
+  </si>
+  <si>
+    <t>Текущее положение предкрылков (квор) 2 п/к</t>
+  </si>
+  <si>
+    <t>DPK2</t>
+  </si>
+  <si>
+    <t>Текущее положение закрылков (квор) 1 п/к</t>
+  </si>
+  <si>
+    <t>DZK1</t>
+  </si>
+  <si>
+    <t>Текущее положение закрылков (квор) 2 п/к</t>
+  </si>
+  <si>
+    <t>DZK2</t>
+  </si>
+  <si>
+    <t>Отказ 1 п/к закрылков</t>
+  </si>
+  <si>
+    <t>FLAPS_1_FAULT</t>
+  </si>
+  <si>
+    <t>Отказ 2 п/к закрылков</t>
+  </si>
+  <si>
+    <t>FLAPS_2_FAULT</t>
+  </si>
+  <si>
+    <t>Отказ 1 п/к предкрылков</t>
+  </si>
+  <si>
+    <t>SLATS_1_FAULT</t>
+  </si>
+  <si>
+    <t>Отказ 2 п/к предкрылков</t>
+  </si>
+  <si>
+    <t>SLATS_2_FAULT</t>
+  </si>
+  <si>
+    <t>Положение механизации</t>
+  </si>
+  <si>
+    <t>X_MHZN</t>
+  </si>
+  <si>
+    <t>[0; 6]</t>
+  </si>
+  <si>
+    <t>Положение РУМК</t>
+  </si>
+  <si>
+    <t>X_FCM</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Валидность сигнала положения РУМК</t>
+  </si>
+  <si>
+    <t>X_FCM_valid</t>
+  </si>
+  <si>
+    <t>Статус захода по крутой глиссаде от САУ</t>
+  </si>
+  <si>
+    <t>S/A</t>
+  </si>
+  <si>
+    <t>Обратная связь от FCC при получении статуса захода по крутой глиссаде</t>
+  </si>
+  <si>
+    <t>S/A_FEEDBACK</t>
+  </si>
+  <si>
+    <t>1 - TRUE    0 - FALSE</t>
+  </si>
+  <si>
+    <t>1 - TRUE  0 - FALSE</t>
+  </si>
+  <si>
+    <t>[0..24] град</t>
+  </si>
+  <si>
+    <t>[0..36] град</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,93 +181,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,247 +508,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="21.83203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Текущее положение предкрылков (квор) 1 п/к</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>DPK1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>[0..24], град</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" s="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Текущее положение предкрылков (квор) 2 п/к</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>DPK2</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>[0..24], град</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Текущее положение закрылков (квор) 1 п/к</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>DZK1</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>[0..36], град</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" s="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Текущее положение закрылков (квор) 2 п/к</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>DZK2</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>[0..36], град</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Отказ 1 п/к закрылков</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>FLAPS_1_FAULT</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>1 - TRUE
-0 - FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Отказ 2 п/к закрылков</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>FLAPS_2_FAULT</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>1 - TRUE
-0 - FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Отказ 1 п/к предкрылков</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>SLATS_1_FAULT</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>1 - TRUE
-0 - FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" s="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Отказ 2 п/к предкрылков</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>SLATS_2_FAULT</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>1 - TRUE
-0 - FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" s="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Положение механизации</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>X_MHZN</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>[0; 6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Положение РУМК</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>X_FCM</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="31" customHeight="1" s="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Валидность сигнала положения РУМК</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>X_FCM_valid</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>1 – TRUE
-0 – FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" s="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Статус захода по крутой глиссаде от САУ</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>S/A</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1" s="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Обратная связь от FCC при получении статуса захода по крутой глиссаде</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>S/A_FEEDBACK</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/logic.xlsx
+++ b/logic.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osalikhov/Desktop/works_gss/Indication_SSJnew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5D8B3-3798-4941-81F7-25756FC0E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD127F-D960-2E47-A22A-BEAA6DB7802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27140" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6_3_8" sheetId="1" r:id="rId1"/>
+    <sheet name="5_10_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Текущее положение предкрылков (квор) 1 п/к</t>
   </si>
@@ -116,13 +117,76 @@
   </si>
   <si>
     <t>[0..36] град</t>
+  </si>
+  <si>
+    <t>ОТКАЗ МВ A (КАНАЛ 1)</t>
+  </si>
+  <si>
+    <t>ОТКАЗ МВ B (КАНАЛ 1)</t>
+  </si>
+  <si>
+    <t>FCL_DM</t>
+  </si>
+  <si>
+    <t>КСУ в минимальном режиме управления</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS11L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS12L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS21L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS11R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS12R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS21R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS22R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS11L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS12L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS21L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS22L-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS11R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS12R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS21R-AVS</t>
+  </si>
+  <si>
+    <t>MCC_B_1_FAULT FCS22R-AVS</t>
+  </si>
+  <si>
+    <t>TRUE – 1 FALSE – 0</t>
+  </si>
+  <si>
+    <t>MCC_A_1_FAULT FCS22L-AVS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +207,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -194,6 +271,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -668,4 +755,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA78339-DC67-EA49-A709-2D87D5B8303F}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logic.xlsx
+++ b/logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osalikhov/Desktop/works_gss/Indication_SSJnew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD127F-D960-2E47-A22A-BEAA6DB7802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6289AFCD-1436-5943-8B4A-A8CB2615959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>ОТКАЗ МВ A (КАНАЛ 1)</t>
   </si>
   <si>
-    <t>ОТКАЗ МВ B (КАНАЛ 1)</t>
-  </si>
-  <si>
     <t>FCL_DM</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>MCC_A_1_FAULT FCS22L-AVS</t>
+  </si>
+  <si>
+    <t>ОТКАЗ МВ B (МОДЕЛЬ 1)</t>
   </si>
 </sst>
 </file>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA78339-DC67-EA49-A709-2D87D5B8303F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,10 +777,10 @@
         <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -799,10 +799,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
@@ -854,109 +854,109 @@
         <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
